--- a/ADReads/ADPower1.xlsx
+++ b/ADReads/ADPower1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-15" windowWidth="9645" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="12795" yWindow="-15" windowWidth="6450" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,112 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Sylvia.Cheng</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"…baseline was defined as usual and stable disease state and ability to tolerate &gt;7 day without topical AD treatments to intened sample sites and &gt;4 week off both oral antibiotics and corticosteroids." (Kong, et al. 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Flare was defined as acute exacerbation of disease on any skin region prior to initiation of intensified AD treatment and without restriction of usual treatments &gt;24 hour prior to sampling." (Kong et al. 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"…defined as patients who reported use of topical medications in the previous 7 days and/or ingestion of oral antibiotics in the previous 4 week before skin sampling." (Kong, et al. 2012)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sylvia.Cheng:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"Postflare was defined as 10-14 day after intensified AD treatment." (Kong, et al. 2012)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,13 +152,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,18 +194,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,11 +506,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.85546875" defaultRowHeight="15"/>
@@ -397,15 +519,15 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -415,10 +537,10 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -529,6 +651,7 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -537,7 +660,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15"/>
@@ -546,12 +669,12 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -563,10 +686,10 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -581,7 +704,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -595,7 +721,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -609,7 +738,10 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -623,7 +755,10 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,7 +772,10 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -649,6 +787,12 @@
       </c>
       <c r="C8">
         <v>6</v>
+      </c>
+      <c r="D8">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
